--- a/biology/Zoologie/Faucille_(papillon)/Faucille_(papillon).xlsx
+++ b/biology/Zoologie/Faucille_(papillon)/Faucille_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drepana falcataria
 La Faucille,  Drepana falcataria, est un insecte lépidoptère de la famille des Drepanidae. 
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décrite par Linné en 1758 c'est l'espèce type pour le genre.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom vient de la forme recourbée vers l'arrière de ses ailes antérieures.
-Envergure : 3 à 3,7 cm ; dispose ses ailes à plat au repos[1].
+Envergure : 3 à 3,7 cm ; dispose ses ailes à plat au repos.
 			♂ MHNT
 			♂  △
 			♀ MHNT
@@ -579,7 +595,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Forme ailée : avril-mai puis de juillet à septembre en deux générations.
 Chenilles : se nourrissent sur les bouleaux, l'aulne glutineux et d'autres espèces d'arbres ; elles ressemblent à de petites feuilles recroquevillées (mimétisme) et ne se dissimulent pas lorsqu'elles mangent. Leur extrémité postérieure est effilée.
